--- a/biology/Botanique/John_Ramsbottom/John_Ramsbottom.xlsx
+++ b/biology/Botanique/John_Ramsbottom/John_Ramsbottom.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Ramsbottom (15 octobre 1885 — 14 décembre 1974) est un mycologue britannique, conservateur au musée d'histoire naturelle de Londres de 1919 à 1950. Il est président de la Linnean Society of London de 1937 à 1940 et de la Society for the History of Natural History de 1943 à 1972.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ramsbottom est né à Manchester. Il est diplômé de l'Emmanuel College de Cambridge en 1909, et poursuit sa formation durant une année à l'université de Manchester[1]. Il rejoint le musée d'histoire naturelle de Londres en 1910.
-Durant la Première Guerre mondiale, il sert à Salonique de 1917 à 1919, d'abord comme protistologue civil puis, avec le grade de capitaine, au sein du corps de santé de l'armée britannique. Il est nommé membre de l'Empire britannique (MBE) en 1918, « pour services rendus dans le cadre des opérations militaires à Salonique », puis officier de l'Empire britannique (OBE) en 1919[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramsbottom est né à Manchester. Il est diplômé de l'Emmanuel College de Cambridge en 1909, et poursuit sa formation durant une année à l'université de Manchester. Il rejoint le musée d'histoire naturelle de Londres en 1910.
+Durant la Première Guerre mondiale, il sert à Salonique de 1917 à 1919, d'abord comme protistologue civil puis, avec le grade de capitaine, au sein du corps de santé de l'armée britannique. Il est nommé membre de l'Empire britannique (MBE) en 1918, « pour services rendus dans le cadre des opérations militaires à Salonique », puis officier de l'Empire britannique (OBE) en 1919.
 De 1929 à 1950, il est chef de département de botanique au musée d'histoire naturelle de Londres. Il est secrétaire général et président, à deux reprises, de la British Mycological Society. Il est également, durant une longue période, rédacteur en chef de sa publication Transactions . Il préside le Quekett Microscopical Club de 1928 à 1931 et en est élu membre honoraire en 1937. Il préside la Linnean Society of London de 1937 à 1940 et reçoit la médaille linnéenne en 1965. Ramsbottom est aussi président de la Society for the History of Natural History de 1943 à 1972, et en est membre honoraire à compter de 1972.
-Il meurt à Richmond upon Thames, le 14 décembre 1974[1]
+Il meurt à Richmond upon Thames, le 14 décembre 1974
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Dr Ramsbottom fait un legs à la Society for the History of Natural History par testament. Elle décide de l'utiliser pour établir à partir de 1976 les « conférences Ramsbottom » (Ramsbottom Lectures), organisées à l'occasion des réunions internationales de la Société.
 </t>
@@ -576,7 +592,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 John Ramsbottom a un style très vivant dans ses conférences comme dans ses écrits, qui comptent à la fois des publications populaires et techniques. Il écrit ainsi dans Mushrooms and Toadstools, publié dans la collection New Naturalist en 1953 : 
@@ -609,7 +627,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1917 : « George Edward Massee », Journal of Botany 55, p. 225
 1923 : A handbook of the larger British Fungi, British Museum, Department of Botany, Londres
